--- a/sd-add-dependance-IG-NOS/ig/StructureDefinition-ror-meta-comment.xlsx
+++ b/sd-add-dependance-IG-NOS/ig/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T13:36:34+00:00</t>
+    <t>2024-04-08T14:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
